--- a/output/SR_544_&_Charlotte_turning_movement_report.xlsx
+++ b/output/SR_544_&_Charlotte_turning_movement_report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Value</t>
   </si>
@@ -54,6 +54,9 @@
     <t>SR 544 &amp; Charlotte</t>
   </si>
   <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
     <t>Approach</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t>Counted Heavy Vehicles</t>
   </si>
   <si>
-    <t>Percent Heavy Vehicles</t>
+    <t>Heavy Vehicles Proportion</t>
   </si>
   <si>
     <t>Peak Hour Factor</t>
@@ -114,16 +117,16 @@
     <t>Peak Total</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>PM</t>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>WB</t>
   </si>
   <si>
     <t>Observed Approach Volume</t>
@@ -142,11 +145,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -206,20 +208,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +542,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>45895</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -608,33 +609,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -642,266 +643,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="C4" s="3">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3">
+        <v>233</v>
+      </c>
+      <c r="L4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3">
+        <v>230</v>
+      </c>
+      <c r="P4" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3">
+        <v>225</v>
+      </c>
+      <c r="D5" s="3">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>146</v>
+      </c>
+      <c r="G5" s="3">
+        <v>228</v>
+      </c>
+      <c r="H5" s="3">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
-        <v>64</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4">
-        <v>68</v>
-      </c>
-      <c r="H4" s="4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4">
-        <v>233</v>
-      </c>
-      <c r="L4" s="4">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>54</v>
+      </c>
+      <c r="K5" s="3">
+        <v>829</v>
+      </c>
+      <c r="L5" s="3">
+        <v>72</v>
+      </c>
+      <c r="M5" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
-        <v>41</v>
-      </c>
-      <c r="O4" s="4">
-        <v>230</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="N5" s="3">
+        <v>115</v>
+      </c>
+      <c r="O5" s="3">
+        <v>789</v>
+      </c>
+      <c r="P5" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5">
-        <v>64</v>
-      </c>
-      <c r="C5" s="5">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>58</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>146</v>
-      </c>
-      <c r="G5" s="5">
-        <v>228</v>
-      </c>
-      <c r="H5" s="5">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>54</v>
-      </c>
-      <c r="K5" s="5">
-        <v>829</v>
-      </c>
-      <c r="L5" s="5">
-        <v>72</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="N5" s="5">
-        <v>115</v>
-      </c>
-      <c r="O5" s="5">
-        <v>789</v>
-      </c>
-      <c r="P5" s="5">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
+      <c r="G6" s="3">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="L6" s="3">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="P6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>23</v>
-      </c>
-      <c r="L6" s="4">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>11</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.0625</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1155555555555556</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.05701754385964912</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.02774427020506634</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.03295310519645121</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="P6" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11.55555555555556</v>
-      </c>
-      <c r="D7" s="4">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.36986301369863</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5.701754385964912</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2.774427020506634</v>
-      </c>
-      <c r="L7" s="4">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>9.565217391304348</v>
-      </c>
-      <c r="O7" s="4">
-        <v>3.29531051964512</v>
-      </c>
-      <c r="P7" s="4">
-        <v>2.73972602739726</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>0.8421052631578947</v>
@@ -946,109 +947,109 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
         <v>67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>234</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>61</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>152</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>238</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>20</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>57</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>863</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>75</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>120</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>821</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>76</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" s="3" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
         <v>75</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>261</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>68</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>169</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>264</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>22</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>63</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>960</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>84</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>134</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>914</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>85</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1077,33 +1078,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1111,234 +1112,234 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3">
+        <v>213</v>
+      </c>
+      <c r="L4" s="3">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>36</v>
+      </c>
+      <c r="O4" s="3">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>127</v>
+      </c>
+      <c r="G5" s="3">
+        <v>229</v>
+      </c>
+      <c r="H5" s="3">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>60</v>
+      </c>
+      <c r="K5" s="3">
+        <v>799</v>
+      </c>
+      <c r="L5" s="3">
+        <v>92</v>
+      </c>
+      <c r="M5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>107</v>
+      </c>
+      <c r="O5" s="3">
+        <v>720</v>
+      </c>
+      <c r="P5" s="3">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>29</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4">
-        <v>213</v>
-      </c>
-      <c r="L4" s="4">
-        <v>28</v>
-      </c>
-      <c r="M4" s="4">
-        <v>5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4">
-        <v>196</v>
-      </c>
-      <c r="P4" s="4">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5">
-        <v>99</v>
-      </c>
-      <c r="C5" s="5">
-        <v>224</v>
-      </c>
-      <c r="D5" s="5">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>127</v>
-      </c>
-      <c r="G5" s="5">
-        <v>229</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>60</v>
-      </c>
-      <c r="K5" s="5">
-        <v>799</v>
-      </c>
-      <c r="L5" s="5">
-        <v>92</v>
-      </c>
-      <c r="M5" s="5">
-        <v>15</v>
-      </c>
-      <c r="N5" s="5">
-        <v>107</v>
-      </c>
-      <c r="O5" s="5">
-        <v>720</v>
-      </c>
-      <c r="P5" s="5">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4">
-        <v>7</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4">
-        <v>29</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="4">
-        <v>4.040404040404041</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C7" s="4">
-        <v>4.464285714285714</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="D7" s="4">
-        <v>1.176470588235294</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="F7" s="4">
-        <v>3.149606299212598</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="G7" s="4">
-        <v>5.676855895196507</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1347,30 +1348,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>5.006257822277847</v>
+        <v>0.05006257822277847</v>
       </c>
       <c r="L7" s="4">
-        <v>7.608695652173914</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>2.803738317757009</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="O7" s="4">
-        <v>4.027777777777778</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7751937984496124</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" s="4" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.7983870967741935</v>
@@ -1415,109 +1416,109 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
         <v>103</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>233</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>89</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>133</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>239</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>13</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>63</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>831</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>96</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>16</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>112</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>749</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>135</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" s="3" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
         <v>115</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>260</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>99</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>148</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>266</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>14</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>70</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>925</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>107</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>18</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>124</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>834</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>150</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1546,33 +1547,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1580,266 +1581,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3">
+        <v>77</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3">
+        <v>250</v>
+      </c>
+      <c r="L4" s="3">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3">
+        <v>202</v>
+      </c>
+      <c r="P4" s="3">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>256</v>
+      </c>
+      <c r="D5" s="3">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>155</v>
+      </c>
+      <c r="G5" s="3">
+        <v>292</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3">
+        <v>897</v>
+      </c>
+      <c r="L5" s="3">
+        <v>71</v>
+      </c>
+      <c r="M5" s="3">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4">
-        <v>77</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="N5" s="3">
+        <v>110</v>
+      </c>
+      <c r="O5" s="3">
+        <v>717</v>
+      </c>
+      <c r="P5" s="3">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>26</v>
       </c>
-      <c r="K4" s="4">
-        <v>250</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>32</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4">
-        <v>5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>34</v>
-      </c>
-      <c r="O4" s="4">
-        <v>202</v>
-      </c>
-      <c r="P4" s="4">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5">
-        <v>111</v>
-      </c>
-      <c r="C5" s="5">
-        <v>256</v>
-      </c>
-      <c r="D5" s="5">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>155</v>
-      </c>
-      <c r="G5" s="5">
-        <v>292</v>
-      </c>
-      <c r="H5" s="5">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>82</v>
-      </c>
-      <c r="K5" s="5">
-        <v>897</v>
-      </c>
-      <c r="L5" s="5">
-        <v>71</v>
-      </c>
-      <c r="M5" s="5">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5">
-        <v>110</v>
-      </c>
-      <c r="O5" s="5">
-        <v>717</v>
-      </c>
-      <c r="P5" s="5">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="B7" s="4">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.015625</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.01290322580645161</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.08904109589041095</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.01219512195121951</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.01783723522853958</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.04463040446304044</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>16</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>32</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.5625</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.290322580645161</v>
-      </c>
-      <c r="G7" s="4">
-        <v>8.904109589041095</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1.219512195121951</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.783723522853958</v>
-      </c>
-      <c r="L7" s="4">
-        <v>7.042253521126761</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="O7" s="4">
-        <v>4.463040446304045</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.819672131147541</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>0.7928571428571428</v>
@@ -1884,109 +1885,109 @@
         <v>0.4166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
         <v>116</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>267</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>82</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>162</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>304</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>14</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>86</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>933</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>74</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>13</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>115</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>746</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>127</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" s="3" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
         <v>129</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>297</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>91</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>180</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>338</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>16</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>95</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>1039</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>83</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>14</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>128</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>830</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>142</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2013,27 +2014,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>45895.30208333334</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>45895.33333333334</v>
       </c>
       <c r="D2">
@@ -2041,13 +2039,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>45895.58333333334</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>45895.61458333334</v>
       </c>
       <c r="D3">
@@ -2055,13 +2053,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
         <v>45895.64583333334</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>45895.67708333334</v>
       </c>
       <c r="D4">
@@ -2082,88 +2080,88 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="26" width="16.7109375" style="4" customWidth="1"/>
+    <col min="2" max="26" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3">
         <v>3327</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3277</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>7658</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>7250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3">
         <v>6289</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6194</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>14474</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>13703</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
         <v>6540</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>6442</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>15053</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>14251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3">
         <v>7279</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7170</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>16754</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>15861</v>
       </c>
     </row>
